--- a/teste.xlsx
+++ b/teste.xlsx
@@ -938,7 +938,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
